--- a/data/annotations/new_annotation_structure_out/iteration_4/iteration_4_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_4/iteration_4_mistral-large-2411-3.xlsx
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -4879,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
         <v>1</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -7693,10 +7693,10 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93" t="n">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
